--- a/Servo Motor & Controller/Servo Min&Max positions.xlsx
+++ b/Servo Motor & Controller/Servo Min&Max positions.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kenne\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kenne\Documents\GitHub\Regis\Servo Motor &amp; Controller\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{EF323537-1E7E-461F-8BD5-C6CF5EC56EAB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{F6C45917-B1CA-4656-B81E-D5641526D2A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12432" xr2:uid="{621ED587-A935-4330-A8C3-193CD3C45C3B}"/>
   </bookViews>
@@ -16,6 +16,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="17">
   <si>
     <t>Leg1</t>
   </si>
@@ -81,6 +82,12 @@
   </si>
   <si>
     <t>Tilt</t>
+  </si>
+  <si>
+    <t>Side A = 1,3</t>
+  </si>
+  <si>
+    <t>Side B = 2,4</t>
   </si>
 </sst>
 </file>
@@ -251,35 +258,33 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -594,10 +599,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9AAAEF49-0E1D-4962-835C-543B0036E60B}">
-  <dimension ref="A3:O24"/>
+  <dimension ref="B4:M24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J20" sqref="J20"/>
+      <selection activeCell="I21" sqref="I21:J21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -607,50 +612,29 @@
     <col min="11" max="11" width="1.89453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3" s="5"/>
-      <c r="B3" s="5"/>
-      <c r="C3" s="5"/>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5"/>
-      <c r="F3" s="5"/>
-      <c r="G3" s="5"/>
-      <c r="H3" s="5"/>
-      <c r="I3" s="5"/>
-      <c r="J3" s="5"/>
-      <c r="K3" s="5"/>
-      <c r="L3" s="5"/>
-      <c r="M3" s="5"/>
-      <c r="N3" s="5"/>
-      <c r="O3" s="5"/>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.55000000000000004">
-      <c r="A4" s="5"/>
-      <c r="B4" s="23"/>
-      <c r="C4" s="14" t="s">
+    <row r="4" spans="2:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="B4" s="16"/>
+      <c r="C4" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="D4" s="14"/>
+      <c r="D4" s="18"/>
       <c r="E4" s="2"/>
-      <c r="F4" s="14" t="s">
+      <c r="F4" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="G4" s="14"/>
+      <c r="G4" s="18"/>
       <c r="H4" s="2"/>
-      <c r="I4" s="14" t="s">
+      <c r="I4" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="J4" s="14"/>
+      <c r="J4" s="18"/>
       <c r="K4" s="2"/>
-      <c r="L4" s="14" t="s">
+      <c r="L4" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="M4" s="15"/>
-      <c r="N4" s="5"/>
-      <c r="O4" s="5"/>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.55000000000000004">
-      <c r="A5" s="5"/>
+      <c r="M4" s="19"/>
+    </row>
+    <row r="5" spans="2:13" x14ac:dyDescent="0.55000000000000004">
       <c r="B5" s="4"/>
       <c r="C5" s="1" t="s">
         <v>11</v>
@@ -658,475 +642,395 @@
       <c r="D5" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E5" s="20"/>
+      <c r="E5" s="13"/>
       <c r="F5" s="2" t="s">
         <v>11</v>
       </c>
       <c r="G5" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="H5" s="20"/>
+      <c r="H5" s="13"/>
       <c r="I5" s="2" t="s">
         <v>11</v>
       </c>
       <c r="J5" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="K5" s="20"/>
+      <c r="K5" s="13"/>
       <c r="L5" s="2" t="s">
         <v>11</v>
       </c>
       <c r="M5" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="N5" s="5"/>
-      <c r="O5" s="5"/>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.55000000000000004">
-      <c r="A6" s="5"/>
-      <c r="B6" s="16" t="s">
+    </row>
+    <row r="6" spans="2:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="B6" s="12" t="s">
         <v>4</v>
       </c>
       <c r="C6" s="4"/>
-      <c r="D6" s="5"/>
-      <c r="E6" s="21"/>
-      <c r="F6" s="5"/>
-      <c r="G6" s="5"/>
-      <c r="H6" s="21"/>
-      <c r="I6" s="5"/>
-      <c r="J6" s="5"/>
-      <c r="K6" s="21"/>
-      <c r="L6" s="5"/>
-      <c r="M6" s="6"/>
-      <c r="N6" s="5"/>
-      <c r="O6" s="5"/>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.55000000000000004">
-      <c r="A7" s="5"/>
+      <c r="E6" s="14"/>
+      <c r="H6" s="14"/>
+      <c r="K6" s="14"/>
+      <c r="M6" s="5"/>
+    </row>
+    <row r="7" spans="2:13" x14ac:dyDescent="0.55000000000000004">
       <c r="B7" s="4" t="s">
         <v>7</v>
       </c>
       <c r="C7" s="4">
         <v>1200</v>
       </c>
-      <c r="D7" s="5">
+      <c r="D7">
         <f>((C7-1500)/1000)*90</f>
         <v>-27</v>
       </c>
-      <c r="E7" s="21"/>
-      <c r="F7" s="5">
+      <c r="E7" s="14"/>
+      <c r="F7">
         <v>2200</v>
       </c>
-      <c r="G7" s="5">
+      <c r="G7">
         <f>((F7-1500)/1000)*90</f>
         <v>62.999999999999993</v>
       </c>
-      <c r="H7" s="21"/>
-      <c r="I7" s="5">
+      <c r="H7" s="14"/>
+      <c r="I7">
         <v>1200</v>
       </c>
-      <c r="J7" s="5">
+      <c r="J7">
         <f>((I7-1500)/1000)*90</f>
         <v>-27</v>
       </c>
-      <c r="K7" s="21"/>
-      <c r="L7" s="5">
+      <c r="K7" s="14"/>
+      <c r="L7">
         <v>2200</v>
       </c>
-      <c r="M7" s="6">
+      <c r="M7" s="5">
         <f>((L7-1500)/1000)*90</f>
         <v>62.999999999999993</v>
       </c>
-      <c r="N7" s="5"/>
-      <c r="O7" s="5"/>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.55000000000000004">
-      <c r="A8" s="5"/>
+    </row>
+    <row r="8" spans="2:13" x14ac:dyDescent="0.55000000000000004">
       <c r="B8" s="4" t="s">
         <v>8</v>
       </c>
       <c r="C8" s="4">
         <v>1500</v>
       </c>
-      <c r="D8" s="5">
-        <v>90</v>
-      </c>
-      <c r="E8" s="21"/>
-      <c r="F8" s="5">
-        <v>1500</v>
-      </c>
-      <c r="G8" s="5">
-        <v>90</v>
-      </c>
-      <c r="H8" s="21"/>
-      <c r="I8" s="5">
-        <v>1500</v>
-      </c>
-      <c r="J8" s="5">
-        <v>90</v>
-      </c>
-      <c r="K8" s="21"/>
-      <c r="L8" s="5">
-        <v>1500</v>
-      </c>
-      <c r="M8" s="6">
-        <v>90</v>
-      </c>
-      <c r="N8" s="5"/>
-      <c r="O8" s="5"/>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.55000000000000004">
-      <c r="A9" s="5"/>
+      <c r="D8">
+        <v>90</v>
+      </c>
+      <c r="E8" s="14"/>
+      <c r="F8">
+        <v>1500</v>
+      </c>
+      <c r="G8">
+        <v>90</v>
+      </c>
+      <c r="H8" s="14"/>
+      <c r="I8">
+        <v>1500</v>
+      </c>
+      <c r="J8">
+        <v>90</v>
+      </c>
+      <c r="K8" s="14"/>
+      <c r="L8">
+        <v>1500</v>
+      </c>
+      <c r="M8" s="5">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="9" spans="2:13" x14ac:dyDescent="0.55000000000000004">
       <c r="B9" s="4" t="s">
         <v>9</v>
       </c>
       <c r="C9" s="4">
         <v>2200</v>
       </c>
-      <c r="D9" s="5">
+      <c r="D9">
         <f>((C9-1500)/1000)*90</f>
         <v>62.999999999999993</v>
       </c>
-      <c r="E9" s="21"/>
-      <c r="F9" s="5">
+      <c r="E9" s="14"/>
+      <c r="F9">
         <v>1200</v>
       </c>
-      <c r="G9" s="5">
+      <c r="G9">
         <f>((F9-1500)/1000)*90</f>
         <v>-27</v>
       </c>
-      <c r="H9" s="21"/>
-      <c r="I9" s="5">
+      <c r="H9" s="14"/>
+      <c r="I9">
         <v>2200</v>
       </c>
-      <c r="J9" s="5">
+      <c r="J9">
         <f>((I9-1500)/1000)*90</f>
         <v>62.999999999999993</v>
       </c>
-      <c r="K9" s="21"/>
-      <c r="L9" s="5">
+      <c r="K9" s="14"/>
+      <c r="L9">
         <v>1200</v>
       </c>
-      <c r="M9" s="6">
+      <c r="M9" s="5">
         <f>((L9-1500)/1000)*90</f>
         <v>-27</v>
       </c>
-      <c r="N9" s="5"/>
-      <c r="O9" s="5"/>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.55000000000000004">
-      <c r="A10" s="5"/>
-      <c r="B10" s="16" t="s">
+    </row>
+    <row r="10" spans="2:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="B10" s="12" t="s">
         <v>5</v>
       </c>
       <c r="C10" s="4"/>
-      <c r="D10" s="5"/>
-      <c r="E10" s="21"/>
-      <c r="F10" s="5"/>
-      <c r="G10" s="5"/>
-      <c r="H10" s="21"/>
-      <c r="I10" s="5"/>
-      <c r="J10" s="5"/>
-      <c r="K10" s="21"/>
-      <c r="L10" s="5"/>
-      <c r="M10" s="6"/>
-      <c r="N10" s="5"/>
-      <c r="O10" s="5"/>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.55000000000000004">
-      <c r="A11" s="5"/>
+      <c r="E10" s="14"/>
+      <c r="H10" s="14"/>
+      <c r="K10" s="14"/>
+      <c r="M10" s="5"/>
+    </row>
+    <row r="11" spans="2:13" x14ac:dyDescent="0.55000000000000004">
       <c r="B11" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C11" s="18">
+      <c r="C11" s="4">
         <v>500</v>
       </c>
-      <c r="D11" s="5">
+      <c r="D11">
         <f>((C11-1500)/1000)*90</f>
         <v>-90</v>
       </c>
-      <c r="E11" s="21"/>
-      <c r="F11" s="12">
+      <c r="E11" s="14"/>
+      <c r="F11">
         <v>2050</v>
       </c>
-      <c r="G11" s="5">
+      <c r="G11">
         <f>((F11-1500)/1000)*90</f>
         <v>49.500000000000007</v>
       </c>
-      <c r="H11" s="21"/>
-      <c r="I11" s="12">
+      <c r="H11" s="14"/>
+      <c r="I11">
         <v>500</v>
       </c>
-      <c r="J11" s="5">
+      <c r="J11">
         <f>((I11-1500)/1000)*90</f>
         <v>-90</v>
       </c>
-      <c r="K11" s="21"/>
-      <c r="L11" s="12">
+      <c r="K11" s="14"/>
+      <c r="L11">
         <v>2050</v>
       </c>
-      <c r="M11" s="6">
+      <c r="M11" s="5">
         <f>((L11-1500)/1000)*90</f>
         <v>49.500000000000007</v>
       </c>
-      <c r="N11" s="5"/>
-      <c r="O11" s="5"/>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.55000000000000004">
-      <c r="A12" s="5"/>
+    </row>
+    <row r="12" spans="2:13" x14ac:dyDescent="0.55000000000000004">
       <c r="B12" s="4" t="s">
         <v>8</v>
       </c>
       <c r="C12" s="4">
         <v>1500</v>
       </c>
-      <c r="D12" s="5">
-        <v>90</v>
-      </c>
-      <c r="E12" s="21"/>
-      <c r="F12" s="5">
-        <v>1500</v>
-      </c>
-      <c r="G12" s="5">
-        <v>90</v>
-      </c>
-      <c r="H12" s="21"/>
-      <c r="I12" s="5">
-        <v>1500</v>
-      </c>
-      <c r="J12" s="5">
-        <v>90</v>
-      </c>
-      <c r="K12" s="21"/>
-      <c r="L12" s="5">
-        <v>1500</v>
-      </c>
-      <c r="M12" s="6">
-        <v>90</v>
-      </c>
-      <c r="N12" s="5"/>
-      <c r="O12" s="5"/>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.55000000000000004">
-      <c r="A13" s="5"/>
+      <c r="D12">
+        <v>90</v>
+      </c>
+      <c r="E12" s="14"/>
+      <c r="F12">
+        <v>1500</v>
+      </c>
+      <c r="G12">
+        <v>90</v>
+      </c>
+      <c r="H12" s="14"/>
+      <c r="I12">
+        <v>1500</v>
+      </c>
+      <c r="J12">
+        <v>90</v>
+      </c>
+      <c r="K12" s="14"/>
+      <c r="L12">
+        <v>1500</v>
+      </c>
+      <c r="M12" s="5">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="13" spans="2:13" x14ac:dyDescent="0.55000000000000004">
       <c r="B13" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C13" s="18">
+      <c r="C13" s="4">
         <v>2050</v>
       </c>
-      <c r="D13" s="5">
+      <c r="D13">
         <f>((C13-1500)/1000)*90</f>
         <v>49.500000000000007</v>
       </c>
-      <c r="E13" s="21"/>
-      <c r="F13" s="12">
+      <c r="E13" s="14"/>
+      <c r="F13">
         <v>500</v>
       </c>
-      <c r="G13" s="5">
+      <c r="G13">
         <f>((F13-1500)/1000)*90</f>
         <v>-90</v>
       </c>
-      <c r="H13" s="21"/>
-      <c r="I13" s="12">
+      <c r="H13" s="14"/>
+      <c r="I13">
         <v>2050</v>
       </c>
-      <c r="J13" s="5">
+      <c r="J13">
         <f>((I13-1500)/1000)*90</f>
         <v>49.500000000000007</v>
       </c>
-      <c r="K13" s="21"/>
-      <c r="L13" s="12">
+      <c r="K13" s="14"/>
+      <c r="L13">
         <v>500</v>
       </c>
-      <c r="M13" s="6">
+      <c r="M13" s="5">
         <f>((L13-1500)/1000)*90</f>
         <v>-90</v>
       </c>
-      <c r="N13" s="5"/>
-      <c r="O13" s="5"/>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.55000000000000004">
-      <c r="A14" s="5"/>
-      <c r="B14" s="16" t="s">
+    </row>
+    <row r="14" spans="2:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="B14" s="12" t="s">
         <v>6</v>
       </c>
       <c r="C14" s="4"/>
-      <c r="D14" s="5"/>
-      <c r="E14" s="21"/>
-      <c r="F14" s="5"/>
-      <c r="G14" s="5"/>
-      <c r="H14" s="21"/>
-      <c r="I14" s="5"/>
-      <c r="J14" s="5"/>
-      <c r="K14" s="21"/>
-      <c r="L14" s="5"/>
-      <c r="M14" s="6"/>
-      <c r="N14" s="5"/>
-      <c r="O14" s="5"/>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.55000000000000004">
-      <c r="A15" s="5"/>
+      <c r="E14" s="14"/>
+      <c r="H14" s="14"/>
+      <c r="K14" s="14"/>
+      <c r="M14" s="5"/>
+    </row>
+    <row r="15" spans="2:13" x14ac:dyDescent="0.55000000000000004">
       <c r="B15" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C15" s="18">
+      <c r="C15" s="4">
         <v>1150</v>
       </c>
-      <c r="D15" s="5">
+      <c r="D15">
         <f>((C15-1500)/1000)*90</f>
         <v>-31.499999999999996</v>
       </c>
-      <c r="E15" s="21"/>
-      <c r="F15" s="12">
+      <c r="E15" s="14"/>
+      <c r="F15">
         <v>2450</v>
       </c>
-      <c r="G15" s="5">
+      <c r="G15">
         <f>((F15-1500)/1000)*90</f>
         <v>85.5</v>
       </c>
-      <c r="H15" s="21"/>
-      <c r="I15" s="12">
+      <c r="H15" s="14"/>
+      <c r="I15">
         <v>1150</v>
       </c>
-      <c r="J15" s="5">
+      <c r="J15">
         <f>((I15-1500)/1000)*90</f>
         <v>-31.499999999999996</v>
       </c>
-      <c r="K15" s="21"/>
-      <c r="L15" s="12">
+      <c r="K15" s="14"/>
+      <c r="L15">
         <v>2450</v>
       </c>
-      <c r="M15" s="6">
+      <c r="M15" s="5">
         <f>((L15-1500)/1000)*90</f>
         <v>85.5</v>
       </c>
-      <c r="N15" s="5"/>
-      <c r="O15" s="5"/>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.55000000000000004">
-      <c r="A16" s="5"/>
+    </row>
+    <row r="16" spans="2:13" x14ac:dyDescent="0.55000000000000004">
       <c r="B16" s="4" t="s">
         <v>8</v>
       </c>
       <c r="C16" s="4">
         <v>1500</v>
       </c>
-      <c r="D16" s="5">
-        <v>90</v>
-      </c>
-      <c r="E16" s="21"/>
-      <c r="F16" s="5">
-        <v>1500</v>
-      </c>
-      <c r="G16" s="5">
-        <v>90</v>
-      </c>
-      <c r="H16" s="21"/>
-      <c r="I16" s="5">
-        <v>1500</v>
-      </c>
-      <c r="J16" s="5">
-        <v>90</v>
-      </c>
-      <c r="K16" s="21"/>
-      <c r="L16" s="5">
-        <v>1500</v>
-      </c>
-      <c r="M16" s="6">
-        <v>90</v>
-      </c>
-      <c r="N16" s="5"/>
-      <c r="O16" s="5"/>
-    </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.55000000000000004">
-      <c r="A17" s="5"/>
-      <c r="B17" s="7" t="s">
+      <c r="D16">
+        <v>90</v>
+      </c>
+      <c r="E16" s="14"/>
+      <c r="F16">
+        <v>1500</v>
+      </c>
+      <c r="G16">
+        <v>90</v>
+      </c>
+      <c r="H16" s="14"/>
+      <c r="I16">
+        <v>1500</v>
+      </c>
+      <c r="J16">
+        <v>90</v>
+      </c>
+      <c r="K16" s="14"/>
+      <c r="L16">
+        <v>1500</v>
+      </c>
+      <c r="M16" s="5">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="17" spans="2:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="B17" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C17" s="19">
+      <c r="C17" s="6">
         <v>2450</v>
       </c>
-      <c r="D17" s="8">
+      <c r="D17" s="7">
         <f>((C17-1500)/1000)*90</f>
         <v>85.5</v>
       </c>
-      <c r="E17" s="22"/>
-      <c r="F17" s="17">
+      <c r="E17" s="15"/>
+      <c r="F17" s="7">
         <v>1150</v>
       </c>
-      <c r="G17" s="8">
+      <c r="G17" s="7">
         <f>((F17-1500)/1000)*90</f>
         <v>-31.499999999999996</v>
       </c>
-      <c r="H17" s="22"/>
-      <c r="I17" s="17">
+      <c r="H17" s="15"/>
+      <c r="I17" s="7">
         <v>2450</v>
       </c>
-      <c r="J17" s="8">
+      <c r="J17" s="7">
         <f>((I17-1500)/1000)*90</f>
         <v>85.5</v>
       </c>
-      <c r="K17" s="22"/>
-      <c r="L17" s="17">
+      <c r="K17" s="15"/>
+      <c r="L17" s="7">
         <v>1150</v>
       </c>
-      <c r="M17" s="9">
+      <c r="M17" s="8">
         <f>((L17-1500)/1000)*90</f>
         <v>-31.499999999999996</v>
       </c>
-      <c r="N17" s="5"/>
-      <c r="O17" s="5"/>
-    </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.55000000000000004">
-      <c r="A18" s="5"/>
-      <c r="B18" s="5"/>
-      <c r="C18" s="5"/>
-      <c r="D18" s="5"/>
-      <c r="E18" s="5"/>
-      <c r="F18" s="5"/>
-      <c r="G18" s="5"/>
-      <c r="H18" s="5"/>
-      <c r="I18" s="5"/>
-      <c r="J18" s="5"/>
-      <c r="K18" s="5"/>
-      <c r="L18" s="5"/>
-      <c r="M18" s="5"/>
-      <c r="N18" s="5"/>
-      <c r="O18" s="5"/>
-    </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.55000000000000004">
-      <c r="A19" s="5"/>
-      <c r="B19" s="10"/>
-      <c r="C19" s="14" t="s">
+    </row>
+    <row r="19" spans="2:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="B19" s="9"/>
+      <c r="C19" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="D19" s="14"/>
-      <c r="E19" s="14"/>
-      <c r="F19" s="14"/>
-      <c r="G19" s="15"/>
-      <c r="H19" s="5"/>
-      <c r="I19" s="5"/>
-      <c r="J19" s="5"/>
-      <c r="K19" s="5"/>
-      <c r="L19" s="5"/>
-      <c r="M19" s="5"/>
-      <c r="N19" s="5"/>
-      <c r="O19" s="5"/>
-    </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.55000000000000004">
-      <c r="B20" s="11"/>
-      <c r="C20" s="13" t="s">
+      <c r="D19" s="18"/>
+      <c r="E19" s="18"/>
+      <c r="F19" s="18"/>
+      <c r="G19" s="19"/>
+    </row>
+    <row r="20" spans="2:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="B20" s="10"/>
+      <c r="C20" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="D20" s="5"/>
-      <c r="E20" s="5"/>
-      <c r="F20" s="13" t="s">
+      <c r="F20" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="G20" s="6"/>
-    </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="G20" s="5"/>
+      <c r="I20" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="J20" s="17"/>
+    </row>
+    <row r="21" spans="2:13" x14ac:dyDescent="0.55000000000000004">
       <c r="B21" s="4"/>
       <c r="C21" s="1" t="s">
         <v>11</v>
@@ -1141,68 +1045,71 @@
       <c r="G21" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="I21" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="J21" s="17"/>
+    </row>
+    <row r="22" spans="2:13" x14ac:dyDescent="0.55000000000000004">
       <c r="B22" s="4" t="s">
         <v>7</v>
       </c>
       <c r="C22" s="4">
         <v>750</v>
       </c>
-      <c r="D22" s="5">
+      <c r="D22">
         <f>((C22-1500)/1000)*90</f>
         <v>-67.5</v>
       </c>
-      <c r="E22" s="5"/>
-      <c r="F22" s="5"/>
-      <c r="G22" s="6">
+      <c r="G22" s="5">
         <f>((F22-1500)/1000)*90</f>
         <v>-135</v>
       </c>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="2:13" x14ac:dyDescent="0.55000000000000004">
       <c r="B23" s="4" t="s">
         <v>8</v>
       </c>
       <c r="C23" s="4">
         <v>1500</v>
       </c>
-      <c r="D23" s="5">
-        <v>90</v>
-      </c>
-      <c r="E23" s="5"/>
-      <c r="F23" s="5">
-        <v>1500</v>
-      </c>
-      <c r="G23" s="6">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.55000000000000004">
-      <c r="B24" s="7" t="s">
+      <c r="D23">
+        <v>90</v>
+      </c>
+      <c r="F23">
+        <v>1500</v>
+      </c>
+      <c r="G23" s="5">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="24" spans="2:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="B24" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C24" s="7">
+      <c r="C24" s="6">
         <v>2250</v>
       </c>
-      <c r="D24" s="8">
+      <c r="D24" s="7">
         <f>((C24-1500)/1000)*90</f>
         <v>67.5</v>
       </c>
-      <c r="E24" s="8"/>
-      <c r="F24" s="8"/>
-      <c r="G24" s="9">
+      <c r="E24" s="7"/>
+      <c r="F24" s="7"/>
+      <c r="G24" s="8">
         <f>((F24-1500)/1000)*90</f>
         <v>-135</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="7">
+    <mergeCell ref="L4:M4"/>
+    <mergeCell ref="C19:G19"/>
+    <mergeCell ref="I20:J20"/>
+    <mergeCell ref="I21:J21"/>
     <mergeCell ref="C4:D4"/>
     <mergeCell ref="F4:G4"/>
     <mergeCell ref="I4:J4"/>
-    <mergeCell ref="L4:M4"/>
-    <mergeCell ref="C19:G19"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
